--- a/data_analysis/multi_omics/k_means/cluster_info.xlsx
+++ b/data_analysis/multi_omics/k_means/cluster_info.xlsx
@@ -32,6 +32,93 @@
     <t>cluster</t>
   </si>
   <si>
+    <t>CHEX.1</t>
+  </si>
+  <si>
+    <t>GCSF</t>
+  </si>
+  <si>
+    <t>Amylin.total</t>
+  </si>
+  <si>
+    <t>M0.97_217.0174m.z</t>
+  </si>
+  <si>
+    <t>M10.93_519.3316n</t>
+  </si>
+  <si>
+    <t>M10.01_439.2696n</t>
+  </si>
+  <si>
+    <t>M11.20_506.3249m.z</t>
+  </si>
+  <si>
+    <t>M10.86_500.2779m.z</t>
+  </si>
+  <si>
+    <t>M10.01_453.2852n</t>
+  </si>
+  <si>
+    <t>M10.93_104.1069m.z</t>
+  </si>
+  <si>
+    <t>M10.93_567.3320n</t>
+  </si>
+  <si>
+    <t>M8.93_135.0298m.z</t>
+  </si>
+  <si>
+    <t>M12.37_425.0802m.z</t>
+  </si>
+  <si>
+    <t>M5.82_478.2934m.z</t>
+  </si>
+  <si>
+    <t>M9.86_495.2960m.z</t>
+  </si>
+  <si>
+    <t>M10.65_399.2208m.z</t>
+  </si>
+  <si>
+    <t>M9.00_330.2405n</t>
+  </si>
+  <si>
+    <t>M10.84_476.2778m.z</t>
+  </si>
+  <si>
+    <t>M5.74_149.0606m.z</t>
+  </si>
+  <si>
+    <t>M11.90_132.0301m.z</t>
+  </si>
+  <si>
+    <t>M6.26_266.1384m.z</t>
+  </si>
+  <si>
+    <t>M11.28_478.2933m.z</t>
+  </si>
+  <si>
+    <t>M11.88_437.3268m.z</t>
+  </si>
+  <si>
+    <t>M6.45_218.1183m.z</t>
+  </si>
+  <si>
+    <t>M11.92_203.0672m.z</t>
+  </si>
+  <si>
+    <t>M12.10_267.2327m.z</t>
+  </si>
+  <si>
+    <t>M10.60_205.1181m.z</t>
+  </si>
+  <si>
+    <t>M6.08_289.0718m.z</t>
+  </si>
+  <si>
+    <t>M5.89_152.0704m.z</t>
+  </si>
+  <si>
     <t>CHEX.3</t>
   </si>
   <si>
@@ -312,93 +399,6 @@
   </si>
   <si>
     <t>M13.04_421.2261m.z</t>
-  </si>
-  <si>
-    <t>CHEX.1</t>
-  </si>
-  <si>
-    <t>GCSF</t>
-  </si>
-  <si>
-    <t>Amylin.total</t>
-  </si>
-  <si>
-    <t>M0.97_217.0174m.z</t>
-  </si>
-  <si>
-    <t>M10.93_519.3316n</t>
-  </si>
-  <si>
-    <t>M10.01_439.2696n</t>
-  </si>
-  <si>
-    <t>M11.20_506.3249m.z</t>
-  </si>
-  <si>
-    <t>M10.86_500.2779m.z</t>
-  </si>
-  <si>
-    <t>M10.01_453.2852n</t>
-  </si>
-  <si>
-    <t>M10.93_104.1069m.z</t>
-  </si>
-  <si>
-    <t>M10.93_567.3320n</t>
-  </si>
-  <si>
-    <t>M8.93_135.0298m.z</t>
-  </si>
-  <si>
-    <t>M12.37_425.0802m.z</t>
-  </si>
-  <si>
-    <t>M5.82_478.2934m.z</t>
-  </si>
-  <si>
-    <t>M9.86_495.2960m.z</t>
-  </si>
-  <si>
-    <t>M10.65_399.2208m.z</t>
-  </si>
-  <si>
-    <t>M9.00_330.2405n</t>
-  </si>
-  <si>
-    <t>M10.84_476.2778m.z</t>
-  </si>
-  <si>
-    <t>M5.74_149.0606m.z</t>
-  </si>
-  <si>
-    <t>M11.90_132.0301m.z</t>
-  </si>
-  <si>
-    <t>M6.26_266.1384m.z</t>
-  </si>
-  <si>
-    <t>M11.28_478.2933m.z</t>
-  </si>
-  <si>
-    <t>M11.88_437.3268m.z</t>
-  </si>
-  <si>
-    <t>M6.45_218.1183m.z</t>
-  </si>
-  <si>
-    <t>M11.92_203.0672m.z</t>
-  </si>
-  <si>
-    <t>M12.10_267.2327m.z</t>
-  </si>
-  <si>
-    <t>M10.60_205.1181m.z</t>
-  </si>
-  <si>
-    <t>M6.08_289.0718m.z</t>
-  </si>
-  <si>
-    <t>M5.89_152.0704m.z</t>
   </si>
 </sst>
 </file>
@@ -474,16 +474,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3736841098497134</v>
+        <v>0.3620279161444669</v>
       </c>
       <c r="C2" t="n">
-        <v>0.19633832677473848</v>
+        <v>0.30791003780587406</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2130139851761035</v>
+        <v>0.18145033952622897</v>
       </c>
       <c r="E2" t="n">
-        <v>0.21696357819944467</v>
+        <v>0.14861170652343014</v>
       </c>
       <c r="F2" t="n">
         <v>1.0</v>
@@ -494,16 +494,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6619678748712801</v>
+        <v>0.30665575519740534</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09419484287210433</v>
+        <v>0.2599784340944387</v>
       </c>
       <c r="D3" t="n">
-        <v>0.10764563325714245</v>
+        <v>0.24548136078832716</v>
       </c>
       <c r="E3" t="n">
-        <v>0.13619164899947306</v>
+        <v>0.18788444991982878</v>
       </c>
       <c r="F3" t="n">
         <v>1.0</v>
@@ -514,16 +514,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6409237455487274</v>
+        <v>0.4717476103131767</v>
       </c>
       <c r="C4" t="n">
-        <v>0.10070200335580758</v>
+        <v>0.13221070079551503</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1106950092473646</v>
+        <v>0.2804290854014032</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1476792418481004</v>
+        <v>0.11561260348990504</v>
       </c>
       <c r="F4" t="n">
         <v>1.0</v>
@@ -534,16 +534,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6112751353756464</v>
+        <v>0.32794639820494065</v>
       </c>
       <c r="C5" t="n">
-        <v>0.11025115802326642</v>
+        <v>0.28935696766539615</v>
       </c>
       <c r="D5" t="n">
-        <v>0.12111333799470099</v>
+        <v>0.2102597935054052</v>
       </c>
       <c r="E5" t="n">
-        <v>0.15736036860638614</v>
+        <v>0.17243684062425801</v>
       </c>
       <c r="F5" t="n">
         <v>1.0</v>
@@ -554,16 +554,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7031983402039299</v>
+        <v>0.7795848882869902</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08376878220583668</v>
+        <v>0.07262831385076654</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09938775364569676</v>
+        <v>0.09859570430437795</v>
       </c>
       <c r="E6" t="n">
-        <v>0.11364512394453667</v>
+        <v>0.04919109355786526</v>
       </c>
       <c r="F6" t="n">
         <v>1.0</v>
@@ -574,16 +574,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6271105144285762</v>
+        <v>0.7827729864410323</v>
       </c>
       <c r="C7" t="n">
-        <v>0.10652837738773314</v>
+        <v>0.08160390729457785</v>
       </c>
       <c r="D7" t="n">
-        <v>0.13807589984270702</v>
+        <v>0.08655828115059264</v>
       </c>
       <c r="E7" t="n">
-        <v>0.12828520834098348</v>
+        <v>0.049064825113797325</v>
       </c>
       <c r="F7" t="n">
         <v>1.0</v>
@@ -594,16 +594,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5258668522822029</v>
+        <v>0.43939425516852065</v>
       </c>
       <c r="C8" t="n">
-        <v>0.13903665878614388</v>
+        <v>0.14749884236866645</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1673512244315937</v>
+        <v>0.29137097511005455</v>
       </c>
       <c r="E8" t="n">
-        <v>0.16774526450005967</v>
+        <v>0.12173592735275846</v>
       </c>
       <c r="F8" t="n">
         <v>1.0</v>
@@ -614,16 +614,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.47707985323692076</v>
+        <v>0.5658763316242746</v>
       </c>
       <c r="C9" t="n">
-        <v>0.14282614611514782</v>
+        <v>0.1669954568015368</v>
       </c>
       <c r="D9" t="n">
-        <v>0.23837744519365228</v>
+        <v>0.16589612917267196</v>
       </c>
       <c r="E9" t="n">
-        <v>0.14171655545427922</v>
+        <v>0.10123208240151668</v>
       </c>
       <c r="F9" t="n">
         <v>1.0</v>
@@ -634,16 +634,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7171334628100289</v>
+        <v>0.7859724532403349</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07975130775827316</v>
+        <v>0.07922394902297758</v>
       </c>
       <c r="D10" t="n">
-        <v>0.10300415283636971</v>
+        <v>0.08645013604714585</v>
       </c>
       <c r="E10" t="n">
-        <v>0.10011107659532824</v>
+        <v>0.048353461689541494</v>
       </c>
       <c r="F10" t="n">
         <v>1.0</v>
@@ -654,16 +654,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5904889501692767</v>
+        <v>0.6816268487871856</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1141757885682927</v>
+        <v>0.12130513468282225</v>
       </c>
       <c r="D11" t="n">
-        <v>0.12208724048414604</v>
+        <v>0.12375430299614827</v>
       </c>
       <c r="E11" t="n">
-        <v>0.17324802077828444</v>
+        <v>0.07331371353384386</v>
       </c>
       <c r="F11" t="n">
         <v>1.0</v>
@@ -674,16 +674,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6021473231116832</v>
+        <v>0.36770128342349323</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1097000894610223</v>
+        <v>0.22715174563527415</v>
       </c>
       <c r="D12" t="n">
-        <v>0.11519452262838213</v>
+        <v>0.24466511619998238</v>
       </c>
       <c r="E12" t="n">
-        <v>0.17295806479891232</v>
+        <v>0.16048185474125015</v>
       </c>
       <c r="F12" t="n">
         <v>1.0</v>
@@ -694,16 +694,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5162925654155933</v>
+        <v>0.788762765403679</v>
       </c>
       <c r="C13" t="n">
-        <v>0.12553551671678279</v>
+        <v>0.07638056988998845</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2360072865605584</v>
+        <v>0.08683981847995698</v>
       </c>
       <c r="E13" t="n">
-        <v>0.12216463130706552</v>
+        <v>0.04801684622637558</v>
       </c>
       <c r="F13" t="n">
         <v>1.0</v>
@@ -714,16 +714,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5195728788434052</v>
+        <v>0.4795849504632107</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1257774665001132</v>
+        <v>0.14819749255778386</v>
       </c>
       <c r="D14" t="n">
-        <v>0.23102986701945116</v>
+        <v>0.25029956910585227</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1236197876370305</v>
+        <v>0.1219179878731532</v>
       </c>
       <c r="F14" t="n">
         <v>1.0</v>
@@ -734,16 +734,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4468234130386585</v>
+        <v>0.7370282377298284</v>
       </c>
       <c r="C15" t="n">
-        <v>0.13752936858063766</v>
+        <v>0.09514485700658641</v>
       </c>
       <c r="D15" t="n">
-        <v>0.29137828457263176</v>
+        <v>0.10872463672089744</v>
       </c>
       <c r="E15" t="n">
-        <v>0.12426893380807204</v>
+        <v>0.05910226854268787</v>
       </c>
       <c r="F15" t="n">
         <v>1.0</v>
@@ -754,16 +754,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="n">
-        <v>0.430989815833276</v>
+        <v>0.5236986330797166</v>
       </c>
       <c r="C16" t="n">
-        <v>0.13980603232236444</v>
+        <v>0.13065825057410088</v>
       </c>
       <c r="D16" t="n">
-        <v>0.30226298680676544</v>
+        <v>0.23787396754856882</v>
       </c>
       <c r="E16" t="n">
-        <v>0.12694116503759414</v>
+        <v>0.10776914879761372</v>
       </c>
       <c r="F16" t="n">
         <v>1.0</v>
@@ -774,16 +774,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="n">
-        <v>0.47710669083490276</v>
+        <v>0.3701848462438138</v>
       </c>
       <c r="C17" t="n">
-        <v>0.15095789810994967</v>
+        <v>0.16490846578482107</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1903568628924749</v>
+        <v>0.31014884520302965</v>
       </c>
       <c r="E17" t="n">
-        <v>0.18157854816267274</v>
+        <v>0.15475784276833549</v>
       </c>
       <c r="F17" t="n">
         <v>1.0</v>
@@ -794,16 +794,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="n">
-        <v>0.27604794894772694</v>
+        <v>0.6406221301167173</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2668382831439732</v>
+        <v>0.12167243584283861</v>
       </c>
       <c r="D18" t="n">
-        <v>0.22400549369923922</v>
+        <v>0.1566477303653327</v>
       </c>
       <c r="E18" t="n">
-        <v>0.23310827420906058</v>
+        <v>0.08105770367511123</v>
       </c>
       <c r="F18" t="n">
         <v>1.0</v>
@@ -814,19 +814,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="n">
-        <v>0.10987196442852105</v>
+        <v>0.5471219933582113</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5107550226579559</v>
+        <v>0.20453077750453297</v>
       </c>
       <c r="D19" t="n">
-        <v>0.11963095477545771</v>
+        <v>0.1467929502045417</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2597420581380653</v>
+        <v>0.10155427893271389</v>
       </c>
       <c r="F19" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
@@ -834,19 +834,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="n">
-        <v>0.11447439262798681</v>
+        <v>0.476608842072426</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5195409351282488</v>
+        <v>0.24565878137239242</v>
       </c>
       <c r="D20" t="n">
-        <v>0.22945667231428468</v>
+        <v>0.15971595210880865</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1365279999294796</v>
+        <v>0.11801642444637289</v>
       </c>
       <c r="F20" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="21">
@@ -854,19 +854,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="n">
-        <v>0.14557000904253542</v>
+        <v>0.3461314397791202</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4378365510047902</v>
+        <v>0.24274096912569018</v>
       </c>
       <c r="D21" t="n">
-        <v>0.25331493075169276</v>
+        <v>0.24094685397788493</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1632785092009816</v>
+        <v>0.17018073711730466</v>
       </c>
       <c r="F21" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="22">
@@ -874,19 +874,19 @@
         <v>26</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1466948281968653</v>
+        <v>0.5074160287415578</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4064952797022712</v>
+        <v>0.1360250741837351</v>
       </c>
       <c r="D22" t="n">
-        <v>0.28286283619781505</v>
+        <v>0.24667570247167378</v>
       </c>
       <c r="E22" t="n">
-        <v>0.16394705590304842</v>
+        <v>0.10988319460303325</v>
       </c>
       <c r="F22" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="23">
@@ -894,19 +894,19 @@
         <v>27</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1897645353551523</v>
+        <v>0.6575192900225263</v>
       </c>
       <c r="C23" t="n">
-        <v>0.33568459580830046</v>
+        <v>0.10734508162363979</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2801888036020279</v>
+        <v>0.15965842030247387</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1943620652345194</v>
+        <v>0.07547720805136011</v>
       </c>
       <c r="F23" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="24">
@@ -914,19 +914,19 @@
         <v>28</v>
       </c>
       <c r="B24" t="n">
-        <v>0.10186104679304704</v>
+        <v>0.5843715649450637</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5959854254186944</v>
+        <v>0.18571233359763276</v>
       </c>
       <c r="D24" t="n">
-        <v>0.14621884491336598</v>
+        <v>0.1371314779186941</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1559346828748925</v>
+        <v>0.09278462353860954</v>
       </c>
       <c r="F24" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="25">
@@ -934,19 +934,19 @@
         <v>29</v>
       </c>
       <c r="B25" t="n">
-        <v>0.09075182837766935</v>
+        <v>0.5106449671723318</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6261566758162289</v>
+        <v>0.16318116259873516</v>
       </c>
       <c r="D25" t="n">
-        <v>0.116012323859174</v>
+        <v>0.21484855664746297</v>
       </c>
       <c r="E25" t="n">
-        <v>0.16707917194692773</v>
+        <v>0.11132531358147008</v>
       </c>
       <c r="F25" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="26">
@@ -954,19 +954,19 @@
         <v>30</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1305367901598536</v>
+        <v>0.5672633398420894</v>
       </c>
       <c r="C26" t="n">
-        <v>0.42539534536332</v>
+        <v>0.12817583706595875</v>
       </c>
       <c r="D26" t="n">
-        <v>0.12880011741410685</v>
+        <v>0.20977282623550877</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3152677470627196</v>
+        <v>0.09478799685644308</v>
       </c>
       <c r="F26" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="27">
@@ -974,19 +974,19 @@
         <v>31</v>
       </c>
       <c r="B27" t="n">
-        <v>0.11813338490006076</v>
+        <v>0.3331202106006632</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5317754021164207</v>
+        <v>0.24371117425539313</v>
       </c>
       <c r="D27" t="n">
-        <v>0.15237425304857044</v>
+        <v>0.25185314509499557</v>
       </c>
       <c r="E27" t="n">
-        <v>0.197716959934948</v>
+        <v>0.17131547004894812</v>
       </c>
       <c r="F27" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="28">
@@ -994,19 +994,19 @@
         <v>32</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1681855473995521</v>
+        <v>0.6583437591058298</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3483418228749258</v>
+        <v>0.13955852192402998</v>
       </c>
       <c r="D28" t="n">
-        <v>0.14635009597293236</v>
+        <v>0.12388719637139708</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3371225337525897</v>
+        <v>0.07821052259874316</v>
       </c>
       <c r="F28" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="29">
@@ -1014,19 +1014,19 @@
         <v>33</v>
       </c>
       <c r="B29" t="n">
-        <v>0.10133543439832675</v>
+        <v>0.5094165871385956</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6043116362824816</v>
+        <v>0.1882350142032391</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1659308804874303</v>
+        <v>0.1848013826651333</v>
       </c>
       <c r="E29" t="n">
-        <v>0.12842204883176125</v>
+        <v>0.11754701599303194</v>
       </c>
       <c r="F29" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="30">
@@ -1034,19 +1034,19 @@
         <v>34</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1285275639213448</v>
+        <v>0.6325947260898177</v>
       </c>
       <c r="C30" t="n">
-        <v>0.47951256133501313</v>
+        <v>0.11939945898078216</v>
       </c>
       <c r="D30" t="n">
-        <v>0.14223701767404032</v>
+        <v>0.163577640630513</v>
       </c>
       <c r="E30" t="n">
-        <v>0.24972285706960184</v>
+        <v>0.08442817429888698</v>
       </c>
       <c r="F30" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="31">
@@ -1054,16 +1054,16 @@
         <v>35</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1700541914602481</v>
+        <v>0.21696645337459777</v>
       </c>
       <c r="C31" t="n">
-        <v>0.40972068298183767</v>
+        <v>0.3736758427935158</v>
       </c>
       <c r="D31" t="n">
-        <v>0.19544428836370473</v>
+        <v>0.19634070817132374</v>
       </c>
       <c r="E31" t="n">
-        <v>0.22478083719420938</v>
+        <v>0.21301699566056265</v>
       </c>
       <c r="F31" t="n">
         <v>2.0</v>
@@ -1074,16 +1074,16 @@
         <v>36</v>
       </c>
       <c r="B32" t="n">
-        <v>0.07853595944057794</v>
+        <v>0.13617459804475995</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6885962462805859</v>
+        <v>0.6620086496317943</v>
       </c>
       <c r="D32" t="n">
-        <v>0.11511233930189045</v>
+        <v>0.09418353677267516</v>
       </c>
       <c r="E32" t="n">
-        <v>0.11775545497694571</v>
+        <v>0.10763321555077049</v>
       </c>
       <c r="F32" t="n">
         <v>2.0</v>
@@ -1094,16 +1094,16 @@
         <v>37</v>
       </c>
       <c r="B33" t="n">
-        <v>0.11823562239529888</v>
+        <v>0.14765697845029366</v>
       </c>
       <c r="C33" t="n">
-        <v>0.5512100436028105</v>
+        <v>0.6409762148011238</v>
       </c>
       <c r="D33" t="n">
-        <v>0.18037377641057364</v>
+        <v>0.10068736661314989</v>
       </c>
       <c r="E33" t="n">
-        <v>0.15018055759131707</v>
+        <v>0.1106794401354327</v>
       </c>
       <c r="F33" t="n">
         <v>2.0</v>
@@ -1114,16 +1114,16 @@
         <v>38</v>
       </c>
       <c r="B34" t="n">
-        <v>0.09568681119512819</v>
+        <v>0.1573407134205869</v>
       </c>
       <c r="C34" t="n">
-        <v>0.6123138761989949</v>
+        <v>0.6113218867609925</v>
       </c>
       <c r="D34" t="n">
-        <v>0.13205831535145152</v>
+        <v>0.11023798578287246</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1599409972544254</v>
+        <v>0.12109941403554812</v>
       </c>
       <c r="F34" t="n">
         <v>2.0</v>
@@ -1134,16 +1134,16 @@
         <v>39</v>
       </c>
       <c r="B35" t="n">
-        <v>0.21690939144556987</v>
+        <v>0.11362575334720357</v>
       </c>
       <c r="C35" t="n">
-        <v>0.30635948199423624</v>
+        <v>0.7032475920346329</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2068752380519633</v>
+        <v>0.08375491975117631</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2698558885082306</v>
+        <v>0.09937173486698726</v>
       </c>
       <c r="F35" t="n">
         <v>2.0</v>
@@ -1154,16 +1154,16 @@
         <v>40</v>
       </c>
       <c r="B36" t="n">
-        <v>0.13711361373724107</v>
+        <v>0.1282766716186013</v>
       </c>
       <c r="C36" t="n">
-        <v>0.4418979021310222</v>
+        <v>0.6271335103973116</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2592234922631375</v>
+        <v>0.10652186918961545</v>
       </c>
       <c r="E36" t="n">
-        <v>0.16176499186859922</v>
+        <v>0.13806794879447173</v>
       </c>
       <c r="F36" t="n">
         <v>2.0</v>
@@ -1174,16 +1174,16 @@
         <v>41</v>
       </c>
       <c r="B37" t="n">
-        <v>0.17648929165922475</v>
+        <v>0.16773813056853848</v>
       </c>
       <c r="C37" t="n">
-        <v>0.33905703210072985</v>
+        <v>0.5258848804356022</v>
       </c>
       <c r="D37" t="n">
-        <v>0.15903478596239115</v>
+        <v>0.13903147064006446</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3254188902776543</v>
+        <v>0.16734551835579495</v>
       </c>
       <c r="F37" t="n">
         <v>2.0</v>
@@ -1194,16 +1194,16 @@
         <v>42</v>
       </c>
       <c r="B38" t="n">
-        <v>0.10805180729006797</v>
+        <v>0.14172335348686468</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5721878250734501</v>
+        <v>0.47705250682875283</v>
       </c>
       <c r="D38" t="n">
-        <v>0.18626685308986662</v>
+        <v>0.14283357507893293</v>
       </c>
       <c r="E38" t="n">
-        <v>0.13349351454661537</v>
+        <v>0.23839056460544955</v>
       </c>
       <c r="F38" t="n">
         <v>2.0</v>
@@ -1214,16 +1214,16 @@
         <v>43</v>
       </c>
       <c r="B39" t="n">
-        <v>0.10079429072536987</v>
+        <v>0.10009813517757496</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6095488766642425</v>
+        <v>0.7171686392090636</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1466776342201629</v>
+        <v>0.07974142689443278</v>
       </c>
       <c r="E39" t="n">
-        <v>0.14297919839022477</v>
+        <v>0.10299179871892865</v>
       </c>
       <c r="F39" t="n">
         <v>2.0</v>
@@ -1234,16 +1234,16 @@
         <v>44</v>
       </c>
       <c r="B40" t="n">
-        <v>0.14392996044454417</v>
+        <v>0.17323382171255908</v>
       </c>
       <c r="C40" t="n">
-        <v>0.44306804953569595</v>
+        <v>0.590520925648394</v>
       </c>
       <c r="D40" t="n">
-        <v>0.22068584694448432</v>
+        <v>0.11416691176367215</v>
       </c>
       <c r="E40" t="n">
-        <v>0.19231614307527567</v>
+        <v>0.12207834087537477</v>
       </c>
       <c r="F40" t="n">
         <v>2.0</v>
@@ -1254,16 +1254,16 @@
         <v>45</v>
       </c>
       <c r="B41" t="n">
-        <v>0.12446117083570576</v>
+        <v>0.17293594581615576</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4848667894938123</v>
+        <v>0.6021962970279893</v>
       </c>
       <c r="D41" t="n">
-        <v>0.13048096775128806</v>
+        <v>0.10968670372014075</v>
       </c>
       <c r="E41" t="n">
-        <v>0.2601910719191939</v>
+        <v>0.11518105343571411</v>
       </c>
       <c r="F41" t="n">
         <v>2.0</v>
@@ -1274,16 +1274,16 @@
         <v>46</v>
       </c>
       <c r="B42" t="n">
-        <v>0.08092384608379175</v>
+        <v>0.12217217153340655</v>
       </c>
       <c r="C42" t="n">
-        <v>0.674552774585571</v>
+        <v>0.51625985079809</v>
       </c>
       <c r="D42" t="n">
-        <v>0.13314508532390498</v>
+        <v>0.12554393904121586</v>
       </c>
       <c r="E42" t="n">
-        <v>0.11137829400673241</v>
+        <v>0.2360240386272877</v>
       </c>
       <c r="F42" t="n">
         <v>2.0</v>
@@ -1294,19 +1294,19 @@
         <v>47</v>
       </c>
       <c r="B43" t="n">
-        <v>0.3028666519039271</v>
+        <v>0.12362749182275758</v>
       </c>
       <c r="C43" t="n">
-        <v>0.18174399073005895</v>
+        <v>0.5195402018650948</v>
       </c>
       <c r="D43" t="n">
-        <v>0.36379940579142334</v>
+        <v>0.12578595837101078</v>
       </c>
       <c r="E43" t="n">
-        <v>0.15158995157459065</v>
+        <v>0.23104634794113688</v>
       </c>
       <c r="F43" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="44">
@@ -1314,19 +1314,19 @@
         <v>48</v>
       </c>
       <c r="B44" t="n">
-        <v>0.10797601177481916</v>
+        <v>0.12427530287042113</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1352073288005705</v>
+        <v>0.44679156895174804</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6828759632411389</v>
+        <v>0.13753716665851595</v>
       </c>
       <c r="E44" t="n">
-        <v>0.07394069618347142</v>
+        <v>0.29139596151931485</v>
       </c>
       <c r="F44" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="45">
@@ -1334,19 +1334,19 @@
         <v>49</v>
       </c>
       <c r="B45" t="n">
-        <v>0.12082047492484717</v>
+        <v>0.12694668950811766</v>
       </c>
       <c r="C45" t="n">
-        <v>0.09958966869353728</v>
+        <v>0.43096110067056304</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7167722276626043</v>
+        <v>0.13981295803601212</v>
       </c>
       <c r="E45" t="n">
-        <v>0.06281762871901138</v>
+        <v>0.3022792517853072</v>
       </c>
       <c r="F45" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="46">
@@ -1354,19 +1354,19 @@
         <v>50</v>
       </c>
       <c r="B46" t="n">
-        <v>0.04758716466007436</v>
+        <v>0.1815759310049215</v>
       </c>
       <c r="C46" t="n">
-        <v>0.051588537399244766</v>
+        <v>0.4771115372355378</v>
       </c>
       <c r="D46" t="n">
-        <v>0.8716237228628114</v>
+        <v>0.1509566349364793</v>
       </c>
       <c r="E46" t="n">
-        <v>0.02920057507786936</v>
+        <v>0.19035589682306142</v>
       </c>
       <c r="F46" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="47">
@@ -1374,19 +1374,19 @@
         <v>51</v>
       </c>
       <c r="B47" t="n">
-        <v>0.33130268850607913</v>
+        <v>0.23310834594274799</v>
       </c>
       <c r="C47" t="n">
-        <v>0.15746827010362097</v>
+        <v>0.27604853091162135</v>
       </c>
       <c r="D47" t="n">
-        <v>0.38828061835763733</v>
+        <v>0.26683787955450644</v>
       </c>
       <c r="E47" t="n">
-        <v>0.12294842303266265</v>
+        <v>0.22400524359112423</v>
       </c>
       <c r="F47" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="48">
@@ -1394,16 +1394,16 @@
         <v>52</v>
       </c>
       <c r="B48" t="n">
-        <v>0.2902938783014376</v>
+        <v>0.25974996494110403</v>
       </c>
       <c r="C48" t="n">
-        <v>0.15530965962053886</v>
+        <v>0.10987223399273185</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4306106318811586</v>
+        <v>0.5107454714952401</v>
       </c>
       <c r="E48" t="n">
-        <v>0.12378583019686486</v>
+        <v>0.1196323295709241</v>
       </c>
       <c r="F48" t="n">
         <v>3.0</v>
@@ -1414,16 +1414,16 @@
         <v>53</v>
       </c>
       <c r="B49" t="n">
-        <v>0.14767476619752273</v>
+        <v>0.13652780139339454</v>
       </c>
       <c r="C49" t="n">
-        <v>0.17307995127792528</v>
+        <v>0.11446885462213753</v>
       </c>
       <c r="D49" t="n">
-        <v>0.580000643891281</v>
+        <v>0.5195504478593292</v>
       </c>
       <c r="E49" t="n">
-        <v>0.09924463863327104</v>
+        <v>0.22945289612513872</v>
       </c>
       <c r="F49" t="n">
         <v>3.0</v>
@@ -1434,16 +1434,16 @@
         <v>54</v>
       </c>
       <c r="B50" t="n">
-        <v>0.04112014279209772</v>
+        <v>0.16327933543026737</v>
       </c>
       <c r="C50" t="n">
-        <v>0.042558953086616766</v>
+        <v>0.14556578238129672</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8919504340197426</v>
+        <v>0.4378415195066644</v>
       </c>
       <c r="E50" t="n">
-        <v>0.024370470101542963</v>
+        <v>0.2533133626817716</v>
       </c>
       <c r="F50" t="n">
         <v>3.0</v>
@@ -1454,16 +1454,16 @@
         <v>55</v>
       </c>
       <c r="B51" t="n">
-        <v>0.07521120082451475</v>
+        <v>0.16394827843344126</v>
       </c>
       <c r="C51" t="n">
-        <v>0.07105754787378685</v>
+        <v>0.14668848380965233</v>
       </c>
       <c r="D51" t="n">
-        <v>0.8108263183475237</v>
+        <v>0.4065017045243489</v>
       </c>
       <c r="E51" t="n">
-        <v>0.04290493295417453</v>
+        <v>0.28286153323255747</v>
       </c>
       <c r="F51" t="n">
         <v>3.0</v>
@@ -1474,16 +1474,16 @@
         <v>56</v>
       </c>
       <c r="B52" t="n">
-        <v>0.04576749666889415</v>
+        <v>0.1943645326925358</v>
       </c>
       <c r="C52" t="n">
-        <v>0.054753479528270796</v>
+        <v>0.18975679687312366</v>
       </c>
       <c r="D52" t="n">
-        <v>0.8698415482016075</v>
+        <v>0.33568891124507555</v>
       </c>
       <c r="E52" t="n">
-        <v>0.029637475601227432</v>
+        <v>0.2801897591892651</v>
       </c>
       <c r="F52" t="n">
         <v>3.0</v>
@@ -1494,16 +1494,16 @@
         <v>57</v>
       </c>
       <c r="B53" t="n">
-        <v>0.09609879147209269</v>
+        <v>0.15593660041605914</v>
       </c>
       <c r="C53" t="n">
-        <v>0.11007665841663007</v>
+        <v>0.10185903721279553</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7314561340116574</v>
+        <v>0.5959857302335542</v>
       </c>
       <c r="E53" t="n">
-        <v>0.06236841609961984</v>
+        <v>0.146218632137591</v>
       </c>
       <c r="F53" t="n">
         <v>3.0</v>
@@ -1514,16 +1514,16 @@
         <v>58</v>
       </c>
       <c r="B54" t="n">
-        <v>0.04769403591406291</v>
+        <v>0.16708405273942695</v>
       </c>
       <c r="C54" t="n">
-        <v>0.04987916994630664</v>
+        <v>0.09075119295751731</v>
       </c>
       <c r="D54" t="n">
-        <v>0.873718147777738</v>
+        <v>0.6261511213708578</v>
       </c>
       <c r="E54" t="n">
-        <v>0.02870864636189252</v>
+        <v>0.1160136329321978</v>
       </c>
       <c r="F54" t="n">
         <v>3.0</v>
@@ -1534,16 +1534,16 @@
         <v>59</v>
       </c>
       <c r="B55" t="n">
-        <v>0.08543071466192619</v>
+        <v>0.31527441483567964</v>
       </c>
       <c r="C55" t="n">
-        <v>0.07792451451568741</v>
+        <v>0.13053717810283738</v>
       </c>
       <c r="D55" t="n">
-        <v>0.7889679093498924</v>
+        <v>0.42538765410059465</v>
       </c>
       <c r="E55" t="n">
-        <v>0.04767686147249402</v>
+        <v>0.1288007529608882</v>
       </c>
       <c r="F55" t="n">
         <v>3.0</v>
@@ -1554,16 +1554,16 @@
         <v>60</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0495185611239171</v>
+        <v>0.19772010839459575</v>
       </c>
       <c r="C56" t="n">
-        <v>0.06043217168952515</v>
+        <v>0.11813204292269999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.8577832349465905</v>
+        <v>0.531773100578244</v>
       </c>
       <c r="E56" t="n">
-        <v>0.03226603223996715</v>
+        <v>0.1523747481044603</v>
       </c>
       <c r="F56" t="n">
         <v>3.0</v>
@@ -1574,16 +1574,16 @@
         <v>61</v>
       </c>
       <c r="B57" t="n">
-        <v>0.06437120108651358</v>
+        <v>0.33712665995882596</v>
       </c>
       <c r="C57" t="n">
-        <v>0.08899526556176304</v>
+        <v>0.1681861262842088</v>
       </c>
       <c r="D57" t="n">
-        <v>0.8019723939113591</v>
+        <v>0.3483371399983787</v>
       </c>
       <c r="E57" t="n">
-        <v>0.04466113944036423</v>
+        <v>0.1463500737585867</v>
       </c>
       <c r="F57" t="n">
         <v>3.0</v>
@@ -1594,16 +1594,16 @@
         <v>62</v>
       </c>
       <c r="B58" t="n">
-        <v>0.05936601106300483</v>
+        <v>0.12842198975686706</v>
       </c>
       <c r="C58" t="n">
-        <v>0.08202419335390612</v>
+        <v>0.10133147502769808</v>
       </c>
       <c r="D58" t="n">
-        <v>0.8177111202562883</v>
+        <v>0.6043183010887673</v>
       </c>
       <c r="E58" t="n">
-        <v>0.040898675326800714</v>
+        <v>0.16592823412666755</v>
       </c>
       <c r="F58" t="n">
         <v>3.0</v>
@@ -1614,16 +1614,16 @@
         <v>63</v>
       </c>
       <c r="B59" t="n">
-        <v>0.14026120683241955</v>
+        <v>0.249728650358232</v>
       </c>
       <c r="C59" t="n">
-        <v>0.11241091622057785</v>
+        <v>0.12852600645050577</v>
       </c>
       <c r="D59" t="n">
-        <v>0.673735479083607</v>
+        <v>0.4795077653731235</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0735923978633957</v>
+        <v>0.14223757781813878</v>
       </c>
       <c r="F59" t="n">
         <v>3.0</v>
@@ -1634,16 +1634,16 @@
         <v>64</v>
       </c>
       <c r="B60" t="n">
-        <v>0.04851911340435589</v>
+        <v>0.22478279118878797</v>
       </c>
       <c r="C60" t="n">
-        <v>0.061236171253353296</v>
+        <v>0.17005285702676043</v>
       </c>
       <c r="D60" t="n">
-        <v>0.8580500762938686</v>
+        <v>0.4097200767272927</v>
       </c>
       <c r="E60" t="n">
-        <v>0.03219463904842226</v>
+        <v>0.1954442750571588</v>
       </c>
       <c r="F60" t="n">
         <v>3.0</v>
@@ -1654,16 +1654,16 @@
         <v>65</v>
       </c>
       <c r="B61" t="n">
-        <v>0.21189628050020087</v>
+        <v>0.11775658215134091</v>
       </c>
       <c r="C61" t="n">
-        <v>0.13233790200506143</v>
+        <v>0.07853368016494268</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5625050608791483</v>
+        <v>0.6885982258498551</v>
       </c>
       <c r="E61" t="n">
-        <v>0.09326075661558936</v>
+        <v>0.11511151183386126</v>
       </c>
       <c r="F61" t="n">
         <v>3.0</v>
@@ -1674,16 +1674,16 @@
         <v>66</v>
       </c>
       <c r="B62" t="n">
-        <v>0.10684697002648547</v>
+        <v>0.1501815069658967</v>
       </c>
       <c r="C62" t="n">
-        <v>0.09179695305587578</v>
+        <v>0.11823167062413686</v>
       </c>
       <c r="D62" t="n">
-        <v>0.7432178535063821</v>
+        <v>0.5512146729960536</v>
       </c>
       <c r="E62" t="n">
-        <v>0.05813822341125675</v>
+        <v>0.18037214941391275</v>
       </c>
       <c r="F62" t="n">
         <v>3.0</v>
@@ -1694,16 +1694,16 @@
         <v>67</v>
       </c>
       <c r="B63" t="n">
-        <v>0.04727604550673709</v>
+        <v>0.1599438654498671</v>
       </c>
       <c r="C63" t="n">
-        <v>0.056806557843980456</v>
+        <v>0.09568524485219142</v>
       </c>
       <c r="D63" t="n">
-        <v>0.8654952662547881</v>
+        <v>0.6123121989700137</v>
       </c>
       <c r="E63" t="n">
-        <v>0.03042213039449423</v>
+        <v>0.13205869072792772</v>
       </c>
       <c r="F63" t="n">
         <v>3.0</v>
@@ -1714,16 +1714,16 @@
         <v>68</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0820661909543436</v>
+        <v>0.2698595231475346</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1275864893547132</v>
+        <v>0.21690410541893146</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7304604140428681</v>
+        <v>0.30636035004460765</v>
       </c>
       <c r="E64" t="n">
-        <v>0.059886905648074966</v>
+        <v>0.20687602138892636</v>
       </c>
       <c r="F64" t="n">
         <v>3.0</v>
@@ -1734,16 +1734,16 @@
         <v>69</v>
       </c>
       <c r="B65" t="n">
-        <v>0.09402483120799002</v>
+        <v>0.1617658369928295</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1493074961140738</v>
+        <v>0.1371082136021562</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6877842689082506</v>
+        <v>0.4419042458539832</v>
       </c>
       <c r="E65" t="n">
-        <v>0.06888340376968545</v>
+        <v>0.2592217035510311</v>
       </c>
       <c r="F65" t="n">
         <v>3.0</v>
@@ -1754,16 +1754,16 @@
         <v>70</v>
       </c>
       <c r="B66" t="n">
-        <v>0.14980789502878994</v>
+        <v>0.32542403717574125</v>
       </c>
       <c r="C66" t="n">
-        <v>0.11799301746714455</v>
+        <v>0.17648719726836232</v>
       </c>
       <c r="D66" t="n">
-        <v>0.6544261492004715</v>
+        <v>0.33905404308715076</v>
       </c>
       <c r="E66" t="n">
-        <v>0.07777293830359394</v>
+        <v>0.15903472246874564</v>
       </c>
       <c r="F66" t="n">
         <v>3.0</v>
@@ -1774,16 +1774,16 @@
         <v>71</v>
       </c>
       <c r="B67" t="n">
-        <v>0.11980297546809247</v>
+        <v>0.13349343846163478</v>
       </c>
       <c r="C67" t="n">
-        <v>0.10805959753732823</v>
+        <v>0.10804779711878847</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7045634101016928</v>
+        <v>0.5721947027889112</v>
       </c>
       <c r="E67" t="n">
-        <v>0.06757401689288652</v>
+        <v>0.18626406163066553</v>
       </c>
       <c r="F67" t="n">
         <v>3.0</v>
@@ -1794,16 +1794,16 @@
         <v>72</v>
       </c>
       <c r="B68" t="n">
-        <v>0.22858170736041544</v>
+        <v>0.14298061879688678</v>
       </c>
       <c r="C68" t="n">
-        <v>0.13506602527590753</v>
+        <v>0.10079210406337538</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5391763351447632</v>
+        <v>0.6095502781853555</v>
       </c>
       <c r="E68" t="n">
-        <v>0.09717593221891382</v>
+        <v>0.1466769989543825</v>
       </c>
       <c r="F68" t="n">
         <v>3.0</v>
@@ -1814,16 +1814,16 @@
         <v>73</v>
       </c>
       <c r="B69" t="n">
-        <v>0.07157930241255023</v>
+        <v>0.19231767269188874</v>
       </c>
       <c r="C69" t="n">
-        <v>0.09697796633386567</v>
+        <v>0.14392578766908945</v>
       </c>
       <c r="D69" t="n">
-        <v>0.7830158311988563</v>
+        <v>0.44307126261526103</v>
       </c>
       <c r="E69" t="n">
-        <v>0.04842690005472769</v>
+        <v>0.22068527702376084</v>
       </c>
       <c r="F69" t="n">
         <v>3.0</v>
@@ -1834,16 +1834,16 @@
         <v>74</v>
       </c>
       <c r="B70" t="n">
-        <v>0.026977051115450564</v>
+        <v>0.26019772976362937</v>
       </c>
       <c r="C70" t="n">
-        <v>0.031100791825439407</v>
+        <v>0.1244611829842527</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9249553079628744</v>
+        <v>0.4848591584893768</v>
       </c>
       <c r="E70" t="n">
-        <v>0.016966849096235585</v>
+        <v>0.130481928762741</v>
       </c>
       <c r="F70" t="n">
         <v>3.0</v>
@@ -1854,16 +1854,16 @@
         <v>75</v>
       </c>
       <c r="B71" t="n">
-        <v>0.08643637838099795</v>
+        <v>0.11137747451141394</v>
       </c>
       <c r="C71" t="n">
-        <v>0.07997528884802774</v>
+        <v>0.08091988398655256</v>
       </c>
       <c r="D71" t="n">
-        <v>0.785140538478867</v>
+        <v>0.67456070468095</v>
       </c>
       <c r="E71" t="n">
-        <v>0.04844779429210735</v>
+        <v>0.1331419368210835</v>
       </c>
       <c r="F71" t="n">
         <v>3.0</v>
@@ -1874,19 +1874,19 @@
         <v>76</v>
       </c>
       <c r="B72" t="n">
-        <v>0.10408528213755862</v>
+        <v>0.15159334110823897</v>
       </c>
       <c r="C72" t="n">
-        <v>0.13477666503154873</v>
+        <v>0.3028477530693786</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6923387778986951</v>
+        <v>0.1817489744410567</v>
       </c>
       <c r="E72" t="n">
-        <v>0.06879927493219747</v>
+        <v>0.36380993138132556</v>
       </c>
       <c r="F72" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="73">
@@ -1894,19 +1894,19 @@
         <v>77</v>
       </c>
       <c r="B73" t="n">
-        <v>0.293383096843046</v>
+        <v>0.07394142443150671</v>
       </c>
       <c r="C73" t="n">
-        <v>0.18581205889629854</v>
+        <v>0.10796975104739279</v>
       </c>
       <c r="D73" t="n">
-        <v>0.36787681534365707</v>
+        <v>0.13521011220080256</v>
       </c>
       <c r="E73" t="n">
-        <v>0.15292802891699833</v>
+        <v>0.682878712320298</v>
       </c>
       <c r="F73" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="74">
@@ -1914,19 +1914,19 @@
         <v>78</v>
       </c>
       <c r="B74" t="n">
-        <v>0.21182133358820832</v>
+        <v>0.06281724054085178</v>
       </c>
       <c r="C74" t="n">
-        <v>0.163551718039008</v>
+        <v>0.12080983542171159</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5094526610120036</v>
+        <v>0.09958991444938514</v>
       </c>
       <c r="E74" t="n">
-        <v>0.11517428736078025</v>
+        <v>0.7167830095880514</v>
       </c>
       <c r="F74" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="75">
@@ -1934,19 +1934,19 @@
         <v>79</v>
       </c>
       <c r="B75" t="n">
-        <v>0.12246682365300905</v>
+        <v>0.029200422039748347</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1852271720410699</v>
+        <v>0.04758350307204315</v>
       </c>
       <c r="D75" t="n">
-        <v>0.6050100720219028</v>
+        <v>0.05158880704393353</v>
       </c>
       <c r="E75" t="n">
-        <v>0.08729593228401825</v>
+        <v>0.871627267844275</v>
       </c>
       <c r="F75" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="76">
@@ -1954,19 +1954,19 @@
         <v>80</v>
       </c>
       <c r="B76" t="n">
-        <v>0.12556884025546983</v>
+        <v>0.12295153362666764</v>
       </c>
       <c r="C76" t="n">
-        <v>0.15111951012177607</v>
+        <v>0.33128203520807104</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6431614784610172</v>
+        <v>0.1574731810723572</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0801501711617369</v>
+        <v>0.3882932500929041</v>
       </c>
       <c r="F76" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="77">
@@ -1974,19 +1974,19 @@
         <v>81</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0938445570897617</v>
+        <v>0.1237883206005058</v>
       </c>
       <c r="C77" t="n">
-        <v>0.15726005925033523</v>
+        <v>0.2902735756126164</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6783320778068394</v>
+        <v>0.1553138431266264</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0705633058530636</v>
+        <v>0.43062426066025145</v>
       </c>
       <c r="F77" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="78">
@@ -1994,19 +1994,19 @@
         <v>82</v>
       </c>
       <c r="B78" t="n">
-        <v>0.2240210405942231</v>
+        <v>0.09924560701664736</v>
       </c>
       <c r="C78" t="n">
-        <v>0.13817857979709475</v>
+        <v>0.14766728106016827</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5367964166779045</v>
+        <v>0.1730833427768602</v>
       </c>
       <c r="E78" t="n">
-        <v>0.10100396293077762</v>
+        <v>0.5800037691463241</v>
       </c>
       <c r="F78" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="79">
@@ -2014,19 +2014,19 @@
         <v>83</v>
       </c>
       <c r="B79" t="n">
-        <v>0.22078527527536604</v>
+        <v>0.024369976041880098</v>
       </c>
       <c r="C79" t="n">
-        <v>0.13266675053406887</v>
+        <v>0.04111629508092342</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5506173437202848</v>
+        <v>0.04255852442270172</v>
       </c>
       <c r="E79" t="n">
-        <v>0.09593063047028018</v>
+        <v>0.8919552044544947</v>
       </c>
       <c r="F79" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="80">
@@ -2034,19 +2034,19 @@
         <v>84</v>
       </c>
       <c r="B80" t="n">
-        <v>0.1739786462893157</v>
+        <v>0.04290409102987308</v>
       </c>
       <c r="C80" t="n">
-        <v>0.21130940770160977</v>
+        <v>0.07520404142455477</v>
       </c>
       <c r="D80" t="n">
-        <v>0.49692280663171695</v>
+        <v>0.07105683652536739</v>
       </c>
       <c r="E80" t="n">
-        <v>0.11778913937735756</v>
+        <v>0.8108350310202047</v>
       </c>
       <c r="F80" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="81">
@@ -2054,19 +2054,19 @@
         <v>85</v>
       </c>
       <c r="B81" t="n">
-        <v>0.17137793861536255</v>
+        <v>0.029638056243907942</v>
       </c>
       <c r="C81" t="n">
-        <v>0.13431105162271903</v>
+        <v>0.045765161973743064</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6079891437878566</v>
+        <v>0.0547551593198533</v>
       </c>
       <c r="E81" t="n">
-        <v>0.08632186597406173</v>
+        <v>0.8698416224624956</v>
       </c>
       <c r="F81" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="82">
@@ -2074,19 +2074,19 @@
         <v>86</v>
       </c>
       <c r="B82" t="n">
-        <v>0.06661594776361898</v>
+        <v>0.06236870986242354</v>
       </c>
       <c r="C82" t="n">
-        <v>0.06212105153151815</v>
+        <v>0.09609242094758251</v>
       </c>
       <c r="D82" t="n">
-        <v>0.8339763834956814</v>
+        <v>0.11007831282236999</v>
       </c>
       <c r="E82" t="n">
-        <v>0.037286617209181416</v>
+        <v>0.731460556367624</v>
       </c>
       <c r="F82" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="83">
@@ -2094,19 +2094,19 @@
         <v>87</v>
       </c>
       <c r="B83" t="n">
-        <v>0.1035613947929661</v>
+        <v>0.02870782082960351</v>
       </c>
       <c r="C83" t="n">
-        <v>0.13081934002772821</v>
+        <v>0.04768905644472182</v>
       </c>
       <c r="D83" t="n">
-        <v>0.6959587432909325</v>
+        <v>0.049878239590358434</v>
       </c>
       <c r="E83" t="n">
-        <v>0.06966052188837306</v>
+        <v>0.8737248831353163</v>
       </c>
       <c r="F83" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="84">
@@ -2114,19 +2114,19 @@
         <v>88</v>
       </c>
       <c r="B84" t="n">
-        <v>0.14130854604065082</v>
+        <v>0.04767609885217961</v>
       </c>
       <c r="C84" t="n">
-        <v>0.15741908371892047</v>
+        <v>0.08542286287940705</v>
       </c>
       <c r="D84" t="n">
-        <v>0.6082063129517353</v>
+        <v>0.07792400341061413</v>
       </c>
       <c r="E84" t="n">
-        <v>0.09306605728869333</v>
+        <v>0.7889770348577991</v>
       </c>
       <c r="F84" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="85">
@@ -2134,19 +2134,19 @@
         <v>89</v>
       </c>
       <c r="B85" t="n">
-        <v>0.07463652674009838</v>
+        <v>0.03226704897398341</v>
       </c>
       <c r="C85" t="n">
-        <v>0.10839860597169333</v>
+        <v>0.04951673338338839</v>
       </c>
       <c r="D85" t="n">
-        <v>0.764646507772341</v>
+        <v>0.06043475931727713</v>
       </c>
       <c r="E85" t="n">
-        <v>0.05231835951586729</v>
+        <v>0.857781458325351</v>
       </c>
       <c r="F85" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="86">
@@ -2154,19 +2154,19 @@
         <v>90</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0912504446870294</v>
+        <v>0.04466270888544909</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0880898430665172</v>
+        <v>0.06436918988482031</v>
       </c>
       <c r="D86" t="n">
-        <v>0.7685716832839696</v>
+        <v>0.08899948612152263</v>
       </c>
       <c r="E86" t="n">
-        <v>0.05208802896248369</v>
+        <v>0.8019686151082079</v>
       </c>
       <c r="F86" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="87">
@@ -2174,19 +2174,19 @@
         <v>91</v>
       </c>
       <c r="B87" t="n">
-        <v>0.11006472308361208</v>
+        <v>0.04090045426920496</v>
       </c>
       <c r="C87" t="n">
-        <v>0.16968573152049685</v>
+        <v>0.05936465279736069</v>
       </c>
       <c r="D87" t="n">
-        <v>0.641117324135355</v>
+        <v>0.08202877412403951</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0791322212605361</v>
+        <v>0.8177061188093948</v>
       </c>
       <c r="F87" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="88">
@@ -2194,19 +2194,19 @@
         <v>92</v>
       </c>
       <c r="B88" t="n">
-        <v>0.11193118008538788</v>
+        <v>0.07359217074163357</v>
       </c>
       <c r="C88" t="n">
-        <v>0.20261612644528945</v>
+        <v>0.14024972844691588</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5987436501221791</v>
+        <v>0.11241154644949283</v>
       </c>
       <c r="E88" t="n">
-        <v>0.08670904334714358</v>
+        <v>0.6737465543619577</v>
       </c>
       <c r="F88" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="89">
@@ -2214,19 +2214,19 @@
         <v>93</v>
       </c>
       <c r="B89" t="n">
-        <v>0.10622500413014302</v>
+        <v>0.0321958046928467</v>
       </c>
       <c r="C89" t="n">
-        <v>0.16365177697973365</v>
+        <v>0.04851753563561563</v>
       </c>
       <c r="D89" t="n">
-        <v>0.653865512663805</v>
+        <v>0.06123909522530892</v>
       </c>
       <c r="E89" t="n">
-        <v>0.07625770622631829</v>
+        <v>0.8580475644462288</v>
       </c>
       <c r="F89" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="90">
@@ -2234,19 +2234,19 @@
         <v>94</v>
       </c>
       <c r="B90" t="n">
-        <v>0.2507472962802014</v>
+        <v>0.09326161139238758</v>
       </c>
       <c r="C90" t="n">
-        <v>0.15635046083839774</v>
+        <v>0.21187967858841128</v>
       </c>
       <c r="D90" t="n">
-        <v>0.47860971807259167</v>
+        <v>0.13234012196756836</v>
       </c>
       <c r="E90" t="n">
-        <v>0.11429252480880915</v>
+        <v>0.5625185880516327</v>
       </c>
       <c r="F90" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="91">
@@ -2254,19 +2254,19 @@
         <v>95</v>
       </c>
       <c r="B91" t="n">
-        <v>0.10524453729814928</v>
+        <v>0.05813741268820499</v>
       </c>
       <c r="C91" t="n">
-        <v>0.18814419835020788</v>
+        <v>0.10683687472822752</v>
       </c>
       <c r="D91" t="n">
-        <v>0.6246878743088732</v>
+        <v>0.09179649628886276</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0819233900427696</v>
+        <v>0.7432292162947047</v>
       </c>
       <c r="F91" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="92">
@@ -2274,19 +2274,19 @@
         <v>96</v>
       </c>
       <c r="B92" t="n">
-        <v>0.13322023056031618</v>
+        <v>0.03042319540218543</v>
       </c>
       <c r="C92" t="n">
-        <v>0.18184100080227789</v>
+        <v>0.0472744675430326</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5942478758482749</v>
+        <v>0.056809183931652324</v>
       </c>
       <c r="E92" t="n">
-        <v>0.090690892789131</v>
+        <v>0.8654931531231296</v>
       </c>
       <c r="F92" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="93">
@@ -2294,19 +2294,19 @@
         <v>97</v>
       </c>
       <c r="B93" t="n">
-        <v>0.12612819178235055</v>
+        <v>0.05988871914388753</v>
       </c>
       <c r="C93" t="n">
-        <v>0.22400138000891723</v>
+        <v>0.0820634444064664</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5516687079585535</v>
+        <v>0.12759206234044304</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0982017202501787</v>
+        <v>0.730455774109203</v>
       </c>
       <c r="F93" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="94">
@@ -2314,19 +2314,19 @@
         <v>98</v>
       </c>
       <c r="B94" t="n">
-        <v>0.15373787651199447</v>
+        <v>0.06888520891598933</v>
       </c>
       <c r="C94" t="n">
-        <v>0.35149674694668115</v>
+        <v>0.09402152865630224</v>
       </c>
       <c r="D94" t="n">
-        <v>0.3575009993943628</v>
+        <v>0.1493134274994142</v>
       </c>
       <c r="E94" t="n">
-        <v>0.1372643771469614</v>
+        <v>0.6877798349282942</v>
       </c>
       <c r="F94" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="95">
@@ -2334,19 +2334,19 @@
         <v>99</v>
       </c>
       <c r="B95" t="n">
-        <v>0.1780149583942608</v>
+        <v>0.07777289579290503</v>
       </c>
       <c r="C95" t="n">
-        <v>0.3085372655008524</v>
+        <v>0.14979616527486106</v>
       </c>
       <c r="D95" t="n">
-        <v>0.3688003041038504</v>
+        <v>0.11799396993592239</v>
       </c>
       <c r="E95" t="n">
-        <v>0.1446474720010363</v>
+        <v>0.6544369689963117</v>
       </c>
       <c r="F95" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="96">
@@ -2354,16 +2354,16 @@
         <v>100</v>
       </c>
       <c r="B96" t="n">
-        <v>0.30789895148786717</v>
+        <v>0.06757366517851668</v>
       </c>
       <c r="C96" t="n">
-        <v>0.18145263395247493</v>
+        <v>0.11979256582885273</v>
       </c>
       <c r="D96" t="n">
-        <v>0.14861260656923583</v>
+        <v>0.10805998535297476</v>
       </c>
       <c r="E96" t="n">
-        <v>0.36203580799042206</v>
+        <v>0.7045737836396558</v>
       </c>
       <c r="F96" t="n">
         <v>4.0</v>
@@ -2374,16 +2374,16 @@
         <v>101</v>
       </c>
       <c r="B97" t="n">
-        <v>0.25998247364125876</v>
+        <v>0.0971770881479776</v>
       </c>
       <c r="C97" t="n">
-        <v>0.24548115131821593</v>
+        <v>0.22856355443650528</v>
       </c>
       <c r="D97" t="n">
-        <v>0.1878835903247293</v>
+        <v>0.13506862878774994</v>
       </c>
       <c r="E97" t="n">
-        <v>0.306652784715796</v>
+        <v>0.5391907286277672</v>
       </c>
       <c r="F97" t="n">
         <v>4.0</v>
@@ -2394,16 +2394,16 @@
         <v>102</v>
       </c>
       <c r="B98" t="n">
-        <v>0.13221112971490523</v>
+        <v>0.04842858324838916</v>
       </c>
       <c r="C98" t="n">
-        <v>0.28043434623840485</v>
+        <v>0.07157709166278266</v>
       </c>
       <c r="D98" t="n">
-        <v>0.11561291537439859</v>
+        <v>0.09698250940497453</v>
       </c>
       <c r="E98" t="n">
-        <v>0.47174160867229126</v>
+        <v>0.7830118156838536</v>
       </c>
       <c r="F98" t="n">
         <v>4.0</v>
@@ -2414,16 +2414,16 @@
         <v>103</v>
       </c>
       <c r="B99" t="n">
-        <v>0.28935879292926386</v>
+        <v>0.016967331603981315</v>
       </c>
       <c r="C99" t="n">
-        <v>0.21025996330014063</v>
+        <v>0.02697587369220514</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1724361266078262</v>
+        <v>0.03110201457480745</v>
       </c>
       <c r="E99" t="n">
-        <v>0.32794511716276925</v>
+        <v>0.924954780129006</v>
       </c>
       <c r="F99" t="n">
         <v>4.0</v>
@@ -2434,16 +2434,16 @@
         <v>104</v>
       </c>
       <c r="B100" t="n">
-        <v>0.07262747171280927</v>
+        <v>0.04844699629984191</v>
       </c>
       <c r="C100" t="n">
-        <v>0.09859775668923902</v>
+        <v>0.08642801961004343</v>
       </c>
       <c r="D100" t="n">
-        <v>0.049191410744682355</v>
+        <v>0.07997470853666287</v>
       </c>
       <c r="E100" t="n">
-        <v>0.7795833608532694</v>
+        <v>0.7851502755534517</v>
       </c>
       <c r="F100" t="n">
         <v>4.0</v>
@@ -2454,16 +2454,16 @@
         <v>105</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0815984572289382</v>
+        <v>0.06880056222384416</v>
       </c>
       <c r="C101" t="n">
-        <v>0.08655587055465737</v>
+        <v>0.10408026892554353</v>
       </c>
       <c r="D101" t="n">
-        <v>0.049062862007345394</v>
+        <v>0.13478069042667173</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7827828102090592</v>
+        <v>0.6923384784239405</v>
       </c>
       <c r="F101" t="n">
         <v>4.0</v>
@@ -2474,16 +2474,16 @@
         <v>106</v>
       </c>
       <c r="B102" t="n">
-        <v>0.14749766569954723</v>
+        <v>0.15293125450261663</v>
       </c>
       <c r="C102" t="n">
-        <v>0.2913760545218149</v>
+        <v>0.29336503998204816</v>
       </c>
       <c r="D102" t="n">
-        <v>0.12173604494162076</v>
+        <v>0.1858169083289494</v>
       </c>
       <c r="E102" t="n">
-        <v>0.43939023483701706</v>
+        <v>0.3678867971863858</v>
       </c>
       <c r="F102" t="n">
         <v>4.0</v>
@@ -2494,16 +2494,16 @@
         <v>107</v>
       </c>
       <c r="B103" t="n">
-        <v>0.16698892417474334</v>
+        <v>0.11517566261933032</v>
       </c>
       <c r="C103" t="n">
-        <v>0.16589613569312905</v>
+        <v>0.21180599363641373</v>
       </c>
       <c r="D103" t="n">
-        <v>0.10123102035513871</v>
+        <v>0.16355482381312722</v>
       </c>
       <c r="E103" t="n">
-        <v>0.5658839197769888</v>
+        <v>0.5094635199311287</v>
       </c>
       <c r="F103" t="n">
         <v>4.0</v>
@@ -2514,16 +2514,16 @@
         <v>108</v>
       </c>
       <c r="B104" t="n">
-        <v>0.07921882549309375</v>
+        <v>0.08729748069673843</v>
       </c>
       <c r="C104" t="n">
-        <v>0.08644785424814411</v>
+        <v>0.1224615509846162</v>
       </c>
       <c r="D104" t="n">
-        <v>0.04835158668394611</v>
+        <v>0.18523272152798528</v>
       </c>
       <c r="E104" t="n">
-        <v>0.785981733574816</v>
+        <v>0.60500824679066</v>
       </c>
       <c r="F104" t="n">
         <v>4.0</v>
@@ -2534,16 +2534,16 @@
         <v>109</v>
       </c>
       <c r="B105" t="n">
-        <v>0.12129901917430586</v>
+        <v>0.08015138557291492</v>
       </c>
       <c r="C105" t="n">
-        <v>0.12375264972704919</v>
+        <v>0.1255627084592336</v>
       </c>
       <c r="D105" t="n">
-        <v>0.07331190930883731</v>
+        <v>0.15112336604800858</v>
       </c>
       <c r="E105" t="n">
-        <v>0.6816364217898077</v>
+        <v>0.6431625399198428</v>
       </c>
       <c r="F105" t="n">
         <v>4.0</v>
@@ -2554,16 +2554,16 @@
         <v>110</v>
       </c>
       <c r="B106" t="n">
-        <v>0.22714766280148432</v>
+        <v>0.07056512666358546</v>
       </c>
       <c r="C106" t="n">
-        <v>0.24466690041077932</v>
+        <v>0.0938411522751852</v>
       </c>
       <c r="D106" t="n">
-        <v>0.1604818436818668</v>
+        <v>0.15726634420754196</v>
       </c>
       <c r="E106" t="n">
-        <v>0.36770359310586953</v>
+        <v>0.6783273768536874</v>
       </c>
       <c r="F106" t="n">
         <v>4.0</v>
@@ -2574,16 +2574,16 @@
         <v>111</v>
       </c>
       <c r="B107" t="n">
-        <v>0.07637805183151224</v>
+        <v>0.10100507957179584</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0868397359271524</v>
+        <v>0.22400272090752577</v>
       </c>
       <c r="D107" t="n">
-        <v>0.04801620793329267</v>
+        <v>0.13818112887713363</v>
       </c>
       <c r="E107" t="n">
-        <v>0.7887660043080427</v>
+        <v>0.5368110706435447</v>
       </c>
       <c r="F107" t="n">
         <v>4.0</v>
@@ -2594,16 +2594,16 @@
         <v>112</v>
       </c>
       <c r="B108" t="n">
-        <v>0.14819882608109236</v>
+        <v>0.09593163046393133</v>
       </c>
       <c r="C108" t="n">
-        <v>0.25030358219766086</v>
+        <v>0.22076673691817703</v>
       </c>
       <c r="D108" t="n">
-        <v>0.12191850725931827</v>
+        <v>0.13266911694615413</v>
       </c>
       <c r="E108" t="n">
-        <v>0.47957908446192854</v>
+        <v>0.5506325156717375</v>
       </c>
       <c r="F108" t="n">
         <v>4.0</v>
@@ -2614,16 +2614,16 @@
         <v>113</v>
       </c>
       <c r="B109" t="n">
-        <v>0.09514085383994192</v>
+        <v>0.11779040043496108</v>
       </c>
       <c r="C109" t="n">
-        <v>0.1087242843529093</v>
+        <v>0.17397154709713628</v>
       </c>
       <c r="D109" t="n">
-        <v>0.05910131805645569</v>
+        <v>0.2113136090185393</v>
       </c>
       <c r="E109" t="n">
-        <v>0.7370335437506931</v>
+        <v>0.4969244434493633</v>
       </c>
       <c r="F109" t="n">
         <v>4.0</v>
@@ -2634,16 +2634,16 @@
         <v>114</v>
       </c>
       <c r="B110" t="n">
-        <v>0.1306591214534227</v>
+        <v>0.08632249989284689</v>
       </c>
       <c r="C110" t="n">
-        <v>0.23787876536270955</v>
+        <v>0.17136609664014316</v>
       </c>
       <c r="D110" t="n">
-        <v>0.10776979781007356</v>
+        <v>0.13431313166456227</v>
       </c>
       <c r="E110" t="n">
-        <v>0.5236923153737942</v>
+        <v>0.6079982718024476</v>
       </c>
       <c r="F110" t="n">
         <v>4.0</v>
@@ -2654,16 +2654,16 @@
         <v>115</v>
       </c>
       <c r="B111" t="n">
-        <v>0.16491048714900766</v>
+        <v>0.037285545199053506</v>
       </c>
       <c r="C111" t="n">
-        <v>0.31015125564084844</v>
+        <v>0.06660882369480492</v>
       </c>
       <c r="D111" t="n">
-        <v>0.1547577278620778</v>
+        <v>0.06211985403649796</v>
       </c>
       <c r="E111" t="n">
-        <v>0.37018052934806617</v>
+        <v>0.8339857770696436</v>
       </c>
       <c r="F111" t="n">
         <v>4.0</v>
@@ -2674,16 +2674,16 @@
         <v>116</v>
       </c>
       <c r="B112" t="n">
-        <v>0.12167228154018424</v>
+        <v>0.06966132257855269</v>
       </c>
       <c r="C112" t="n">
-        <v>0.15665180804136541</v>
+        <v>0.10355510606957155</v>
       </c>
       <c r="D112" t="n">
-        <v>0.08105876239744667</v>
+        <v>0.13082223893985348</v>
       </c>
       <c r="E112" t="n">
-        <v>0.6406171480210037</v>
+        <v>0.6959613324120223</v>
       </c>
       <c r="F112" t="n">
         <v>4.0</v>
@@ -2694,16 +2694,16 @@
         <v>117</v>
       </c>
       <c r="B113" t="n">
-        <v>0.20451985326903832</v>
+        <v>0.09306677291979813</v>
       </c>
       <c r="C113" t="n">
-        <v>0.14679287049908257</v>
+        <v>0.14130018902452454</v>
       </c>
       <c r="D113" t="n">
-        <v>0.10155329163219019</v>
+        <v>0.15742180066367634</v>
       </c>
       <c r="E113" t="n">
-        <v>0.547133984599689</v>
+        <v>0.608211237392001</v>
       </c>
       <c r="F113" t="n">
         <v>4.0</v>
@@ -2714,16 +2714,16 @@
         <v>118</v>
       </c>
       <c r="B114" t="n">
-        <v>0.24564783470385218</v>
+        <v>0.052320158827490644</v>
       </c>
       <c r="C114" t="n">
-        <v>0.15971689347989165</v>
+        <v>0.07463419501741748</v>
       </c>
       <c r="D114" t="n">
-        <v>0.11801614968375294</v>
+        <v>0.10840371316374656</v>
       </c>
       <c r="E114" t="n">
-        <v>0.47661912213250335</v>
+        <v>0.7646419329913453</v>
       </c>
       <c r="F114" t="n">
         <v>4.0</v>
@@ -2734,16 +2734,16 @@
         <v>119</v>
       </c>
       <c r="B115" t="n">
-        <v>0.2427435033278832</v>
+        <v>0.05208772983826747</v>
       </c>
       <c r="C115" t="n">
-        <v>0.24094757609917236</v>
+        <v>0.09124277410783004</v>
       </c>
       <c r="D115" t="n">
-        <v>0.17018034715191263</v>
+        <v>0.0880901603973915</v>
       </c>
       <c r="E115" t="n">
-        <v>0.3461285734210318</v>
+        <v>0.768579335656511</v>
       </c>
       <c r="F115" t="n">
         <v>4.0</v>
@@ -2754,16 +2754,16 @@
         <v>120</v>
       </c>
       <c r="B116" t="n">
-        <v>0.13602665008357506</v>
+        <v>0.07913381857189118</v>
       </c>
       <c r="C116" t="n">
-        <v>0.24668165362686312</v>
+        <v>0.11005998516901942</v>
       </c>
       <c r="D116" t="n">
-        <v>0.1098842823478104</v>
+        <v>0.16969131616067862</v>
       </c>
       <c r="E116" t="n">
-        <v>0.5074074139417514</v>
+        <v>0.6411148800984108</v>
       </c>
       <c r="F116" t="n">
         <v>4.0</v>
@@ -2774,16 +2774,16 @@
         <v>121</v>
       </c>
       <c r="B117" t="n">
-        <v>0.10734446364016086</v>
+        <v>0.08671073240456088</v>
       </c>
       <c r="C117" t="n">
-        <v>0.15966257348931484</v>
+        <v>0.11192681618530267</v>
       </c>
       <c r="D117" t="n">
-        <v>0.07547802022297147</v>
+        <v>0.20262305949277604</v>
       </c>
       <c r="E117" t="n">
-        <v>0.6575149426475528</v>
+        <v>0.5987393919173604</v>
       </c>
       <c r="F117" t="n">
         <v>4.0</v>
@@ -2794,16 +2794,16 @@
         <v>122</v>
       </c>
       <c r="B118" t="n">
-        <v>0.1857018032449347</v>
+        <v>0.07625937585830667</v>
       </c>
       <c r="C118" t="n">
-        <v>0.13713086366605134</v>
+        <v>0.1062207907332638</v>
       </c>
       <c r="D118" t="n">
-        <v>0.09278332368115123</v>
+        <v>0.16365747052925173</v>
       </c>
       <c r="E118" t="n">
-        <v>0.5843840094078627</v>
+        <v>0.6538623628791778</v>
       </c>
       <c r="F118" t="n">
         <v>4.0</v>
@@ -2814,16 +2814,16 @@
         <v>123</v>
       </c>
       <c r="B119" t="n">
-        <v>0.16318029569368703</v>
+        <v>0.1142945909771225</v>
       </c>
       <c r="C119" t="n">
-        <v>0.21485269815938662</v>
+        <v>0.2507279918186579</v>
       </c>
       <c r="D119" t="n">
-        <v>0.11132610806731989</v>
+        <v>0.15635428373435897</v>
       </c>
       <c r="E119" t="n">
-        <v>0.5106408980796064</v>
+        <v>0.47862313346986063</v>
       </c>
       <c r="F119" t="n">
         <v>4.0</v>
@@ -2834,16 +2834,16 @@
         <v>124</v>
       </c>
       <c r="B120" t="n">
-        <v>0.1281762996391504</v>
+        <v>0.08192503993787002</v>
       </c>
       <c r="C120" t="n">
-        <v>0.20977881281047397</v>
+        <v>0.1052400791046291</v>
       </c>
       <c r="D120" t="n">
-        <v>0.09478924211024363</v>
+        <v>0.18815074111471294</v>
       </c>
       <c r="E120" t="n">
-        <v>0.567255645440132</v>
+        <v>0.624684139842788</v>
       </c>
       <c r="F120" t="n">
         <v>4.0</v>
@@ -2854,16 +2854,16 @@
         <v>125</v>
       </c>
       <c r="B121" t="n">
-        <v>0.24371310342007815</v>
+        <v>0.09069231544940108</v>
       </c>
       <c r="C121" t="n">
-        <v>0.2518542239725064</v>
+        <v>0.1332139863458789</v>
       </c>
       <c r="D121" t="n">
-        <v>0.17131529762674672</v>
+        <v>0.181845843479947</v>
       </c>
       <c r="E121" t="n">
-        <v>0.3331173749806688</v>
+        <v>0.5942478547247729</v>
       </c>
       <c r="F121" t="n">
         <v>4.0</v>
@@ -2874,16 +2874,16 @@
         <v>126</v>
       </c>
       <c r="B122" t="n">
-        <v>0.13955217793191926</v>
+        <v>0.09820322135107808</v>
       </c>
       <c r="C122" t="n">
-        <v>0.12388619043114459</v>
+        <v>0.12612220176136194</v>
       </c>
       <c r="D122" t="n">
-        <v>0.07820908435613788</v>
+        <v>0.22400784401367443</v>
       </c>
       <c r="E122" t="n">
-        <v>0.6583525472807982</v>
+        <v>0.5516667328738856</v>
       </c>
       <c r="F122" t="n">
         <v>4.0</v>
@@ -2894,16 +2894,16 @@
         <v>127</v>
       </c>
       <c r="B123" t="n">
-        <v>0.18823365148345267</v>
+        <v>0.13726561402338908</v>
       </c>
       <c r="C123" t="n">
-        <v>0.1848031145609431</v>
+        <v>0.15373118445281406</v>
       </c>
       <c r="D123" t="n">
-        <v>0.11754706495572632</v>
+        <v>0.3515041314422077</v>
       </c>
       <c r="E123" t="n">
-        <v>0.5094161689998778</v>
+        <v>0.3574990700815892</v>
       </c>
       <c r="F123" t="n">
         <v>4.0</v>
@@ -2914,16 +2914,16 @@
         <v>128</v>
       </c>
       <c r="B124" t="n">
-        <v>0.11939705262789573</v>
+        <v>0.14464909222780503</v>
       </c>
       <c r="C124" t="n">
-        <v>0.16357893872581733</v>
+        <v>0.17800755118455125</v>
       </c>
       <c r="D124" t="n">
-        <v>0.08442773196344346</v>
+        <v>0.30854312979413173</v>
       </c>
       <c r="E124" t="n">
-        <v>0.6325962766828435</v>
+        <v>0.36880022679351193</v>
       </c>
       <c r="F124" t="n">
         <v>4.0</v>
